--- a/doc/Расчет двигателей.xlsx
+++ b/doc/Расчет двигателей.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\SE_script\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\SE_my _script\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,11 +1514,11 @@
         <v>7</v>
       </c>
       <c r="B22" s="6">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="C22" s="7">
         <f>B22*10</f>
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="D22" s="6">
         <v>30</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B25" s="5">
         <f>C22/$B$8</f>
-        <v>68.75</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>16</v>
@@ -1567,7 +1567,7 @@
       <c r="E25" s="5"/>
       <c r="G25" s="5">
         <f>$C$22/B9</f>
-        <v>336.73469387755102</v>
+        <v>20.408163265306122</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>16</v>
@@ -1576,7 +1576,7 @@
       <c r="J25" s="5"/>
       <c r="L25" s="5">
         <f>C22/B3</f>
-        <v>4.583333333333333</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>16</v>
@@ -1585,7 +1585,7 @@
       <c r="O25" s="5"/>
       <c r="Q25" s="5">
         <f>$C$22/B4</f>
-        <v>30</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>16</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B26" s="5">
         <f>ROUNDUP(B25,0)</f>
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>16</v>
@@ -1608,7 +1608,7 @@
       <c r="E26" s="5"/>
       <c r="G26" s="5">
         <f>ROUNDUP(G25,0)</f>
-        <v>337</v>
+        <v>21</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>16</v>
@@ -1617,7 +1617,7 @@
       <c r="J26" s="5"/>
       <c r="L26" s="5">
         <f>ROUNDUP(L25,0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>16</v>
@@ -1626,7 +1626,7 @@
       <c r="O26" s="5"/>
       <c r="Q26" s="5">
         <f>ROUNDUP(Q25,0)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>16</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B27" s="10">
         <f>B26*150%</f>
-        <v>103.5</v>
+        <v>7.5</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>16</v>
@@ -1649,7 +1649,7 @@
       <c r="E27" s="5"/>
       <c r="G27" s="10">
         <f>G26*150%</f>
-        <v>505.5</v>
+        <v>31.5</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>16</v>
@@ -1658,26 +1658,26 @@
       <c r="J27" s="5"/>
       <c r="L27" s="5">
         <f>L26*150%</f>
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="10">
         <f>ROUNDUP(L27,0)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O27" s="5"/>
       <c r="Q27" s="5">
         <f>Q26*150%</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S27" s="10">
         <f>ROUNDUP(Q27,0)</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="T27" s="5"/>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B28" s="5">
         <f>B27*E8</f>
-        <v>62100</v>
+        <v>4500</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>11</v>
@@ -1696,7 +1696,7 @@
       <c r="E28" s="5"/>
       <c r="G28" s="5">
         <f>G27*E9</f>
-        <v>50550</v>
+        <v>3150</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>11</v>
@@ -1705,7 +1705,7 @@
       <c r="J28" s="5"/>
       <c r="L28" s="5">
         <f>N27*E3</f>
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>11</v>
@@ -1714,7 +1714,7 @@
       <c r="O28" s="5"/>
       <c r="Q28" s="5">
         <f>S27*E4</f>
-        <v>54000</v>
+        <v>3600</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>11</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B29" s="5">
         <f>B28*60*D22</f>
-        <v>111780000</v>
+        <v>8100000</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -1737,7 +1737,7 @@
       <c r="E29" s="5"/>
       <c r="G29" s="5">
         <f>G28*60*$D$22</f>
-        <v>90990000</v>
+        <v>5670000</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>11</v>
@@ -1746,7 +1746,7 @@
       <c r="J29" s="5"/>
       <c r="L29" s="5">
         <f>L28*60*D22</f>
-        <v>108000000</v>
+        <v>27000000</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>11</v>
@@ -1755,7 +1755,7 @@
       <c r="O29" s="5"/>
       <c r="Q29" s="5">
         <f>Q28*60*$D$22</f>
-        <v>97200000</v>
+        <v>6480000</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>11</v>
@@ -1769,28 +1769,28 @@
       </c>
       <c r="B30" s="10">
         <f>B29/H8</f>
-        <v>223.56</v>
+        <v>16.2</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="10">
         <f>G29/H8</f>
-        <v>181.98</v>
+        <v>11.34</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="L30" s="10">
         <f>L29/H3</f>
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="Q30" s="10">
         <f>Q29/H3</f>
-        <v>6.48</v>
+        <v>0.432</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -1802,28 +1802,28 @@
       </c>
       <c r="B31" s="10">
         <f>B29/H9</f>
-        <v>7452</v>
+        <v>540</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="G31" s="10">
         <f>G29/H9</f>
-        <v>6066</v>
+        <v>378</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="L31" s="10">
         <f>L29/H4</f>
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="Q31" s="10">
         <f>Q29/H4</f>
-        <v>97.2</v>
+        <v>6.48</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -1832,17 +1832,17 @@
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>G26/B26</f>
-        <v>4.8840579710144931</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O34">
         <f>S27/N27</f>
-        <v>5.625</v>
+        <v>1.5</v>
       </c>
       <c r="P34">
         <f>S27/N27</f>
-        <v>5.625</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Расчет двигателей.xlsx
+++ b/doc/Расчет двигателей.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="300" windowWidth="17250" windowHeight="14865" activeTab="1"/>
+    <workbookView xWindow="2070" yWindow="300" windowWidth="17250" windowHeight="14870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ионник" sheetId="3" r:id="rId1"/>
@@ -695,20 +695,20 @@
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -740,7 +740,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -786,12 +786,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L7" t="s">
         <v>53</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -879,12 +879,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="11">
         <f>B17*10</f>
         <v>50000</v>
@@ -904,14 +904,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -922,7 +922,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -934,12 +934,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -947,12 +947,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -976,14 +976,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>56</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1191,7 +1191,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1247,7 +1247,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -1315,19 +1315,19 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C46">
         <f>F39/B39</f>
         <v>12.269083969465649</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L48">
         <f>J39/N39</f>
         <v>12.428571428571429</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G49">
         <f>9*3</f>
         <v>27</v>
@@ -1349,21 +1349,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1428,14 +1428,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1445,14 +1445,14 @@
       <c r="E6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1509,23 +1509,23 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C22" s="7">
         <f>B22*10</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D22" s="6">
         <v>30</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="21" t="s">
         <v>19</v>
@@ -1552,13 +1552,13 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="5">
         <f>C22/$B$8</f>
-        <v>4.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>16</v>
@@ -1567,7 +1567,7 @@
       <c r="E25" s="5"/>
       <c r="G25" s="5">
         <f>$C$22/B9</f>
-        <v>20.408163265306122</v>
+        <v>30.612244897959183</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>16</v>
@@ -1576,7 +1576,7 @@
       <c r="J25" s="5"/>
       <c r="L25" s="5">
         <f>C22/B3</f>
-        <v>0.27777777777777779</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>16</v>
@@ -1585,7 +1585,7 @@
       <c r="O25" s="5"/>
       <c r="Q25" s="5">
         <f>$C$22/B4</f>
-        <v>1.8181818181818181</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>16</v>
@@ -1593,13 +1593,13 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="5">
         <f>ROUNDUP(B25,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>16</v>
@@ -1608,7 +1608,7 @@
       <c r="E26" s="5"/>
       <c r="G26" s="5">
         <f>ROUNDUP(G25,0)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>16</v>
@@ -1626,7 +1626,7 @@
       <c r="O26" s="5"/>
       <c r="Q26" s="5">
         <f>ROUNDUP(Q25,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>16</v>
@@ -1634,13 +1634,13 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="10">
         <f>B26*150%</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>16</v>
@@ -1649,7 +1649,7 @@
       <c r="E27" s="5"/>
       <c r="G27" s="10">
         <f>G26*150%</f>
-        <v>31.5</v>
+        <v>46.5</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>16</v>
@@ -1670,24 +1670,24 @@
       <c r="O27" s="5"/>
       <c r="Q27" s="5">
         <f>Q26*150%</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S27" s="10">
         <f>ROUNDUP(Q27,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="5">
         <f>B27*E8</f>
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>11</v>
@@ -1696,7 +1696,7 @@
       <c r="E28" s="5"/>
       <c r="G28" s="5">
         <f>G27*E9</f>
-        <v>3150</v>
+        <v>4650</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>11</v>
@@ -1714,7 +1714,7 @@
       <c r="O28" s="5"/>
       <c r="Q28" s="5">
         <f>S27*E4</f>
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>11</v>
@@ -1722,13 +1722,13 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="5">
         <f>B28*60*D22</f>
-        <v>8100000</v>
+        <v>11340000</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -1737,7 +1737,7 @@
       <c r="E29" s="5"/>
       <c r="G29" s="5">
         <f>G28*60*$D$22</f>
-        <v>5670000</v>
+        <v>8370000</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>11</v>
@@ -1755,7 +1755,7 @@
       <c r="O29" s="5"/>
       <c r="Q29" s="5">
         <f>Q28*60*$D$22</f>
-        <v>6480000</v>
+        <v>10800000</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>11</v>
@@ -1763,20 +1763,20 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="10">
         <f>B29/H8</f>
-        <v>16.2</v>
+        <v>22.68</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="10">
         <f>G29/H8</f>
-        <v>11.34</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1790,26 +1790,26 @@
       <c r="O30" s="5"/>
       <c r="Q30" s="10">
         <f>Q29/H3</f>
-        <v>0.432</v>
+        <v>0.72</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="10">
         <f>B29/H9</f>
-        <v>540</v>
+        <v>756</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="G31" s="10">
         <f>G29/H9</f>
-        <v>378</v>
+        <v>558</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1823,26 +1823,26 @@
       <c r="O31" s="5"/>
       <c r="Q31" s="10">
         <f>Q29/H4</f>
-        <v>6.48</v>
+        <v>10.8</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33">
         <f>G26/B26</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="O34">
         <f>S27/N27</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P34">
         <f>S27/N27</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -1865,20 +1865,20 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1956,12 +1956,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2029,12 +2029,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="11">
         <f>B17*10</f>
         <v>30000</v>
@@ -2054,14 +2054,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2085,12 +2085,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2098,12 +2098,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2127,14 +2127,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2342,7 +2342,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2398,7 +2398,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -2466,19 +2466,19 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C46">
         <f>F39/B39</f>
         <v>5.9885057471264371</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L48">
         <f>J39/N39</f>
         <v>9.75</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G49">
         <f>9*3</f>
         <v>27</v>
